--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Books" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,76 +397,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>ACCESSION NUMBER</v>
       </c>
       <c r="B1" t="str">
-        <v>Index</v>
+        <v>BOOK NAME</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ISBN NUMBER</v>
+      </c>
+      <c r="D1" t="str">
+        <v>BOOK TYPE</v>
+      </c>
+      <c r="E1" t="str">
+        <v>AUTHOR</v>
+      </c>
+      <c r="F1" t="str">
+        <v>PUBLISHED DATE</v>
+      </c>
+      <c r="G1" t="str">
+        <v>NUM OF PAGES</v>
+      </c>
+      <c r="H1" t="str">
+        <v>IMAGE LINKS</v>
+      </c>
+      <c r="I1" t="str">
+        <v>LANGUAGE</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Bill Clinton</v>
-      </c>
-      <c r="B2">
-        <v>42</v>
+        <v>N/A</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Bound by One Scandalous Night</v>
+      </c>
+      <c r="C2" t="str">
+        <v>9780373298785</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Fiction, Romance, Historical</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Diane Gaston</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2016</v>
+      </c>
+      <c r="G2">
+        <v>283</v>
+      </c>
+      <c r="H2" t="str">
+        <v>https://covers.openlibrary.org/b/id/13058255-L.jpg</v>
+      </c>
+      <c r="I2" t="str">
+        <v>English</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GeorgeW Bush</v>
-      </c>
-      <c r="B3">
-        <v>43</v>
+        <v>N/A</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Good news Bible</v>
+      </c>
+      <c r="C3" t="str">
+        <v>9780564003112</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Manuscripts, Latin (Medieval and modern)</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Bible</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1976</v>
+      </c>
+      <c r="G3">
+        <v>931</v>
+      </c>
+      <c r="H3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I3" t="str">
+        <v>English</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Barack Obama</v>
-      </c>
-      <c r="B4">
-        <v>44</v>
+        <v>N/A</v>
+      </c>
+      <c r="B4" t="str">
+        <v>The Holy Bible</v>
+      </c>
+      <c r="C4" t="str">
+        <v>9780564090136</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Christianity</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Bible Society</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1991-01-01</v>
+      </c>
+      <c r="G4">
+        <v>1311</v>
+      </c>
+      <c r="H4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I4" t="str">
+        <v>EN</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Donald Trump</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
+        <v>N/A</v>
+      </c>
+      <c r="B5" t="str">
+        <v>The Holy Bible</v>
+      </c>
+      <c r="C5" t="str">
+        <v>9780670887972</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Bible</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Barry Moser</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1999</v>
+      </c>
+      <c r="G5">
+        <v>994</v>
+      </c>
+      <c r="H5" t="str">
+        <v>https://covers.openlibrary.org/b/id/402477-L.jpg</v>
+      </c>
+      <c r="I5" t="str">
+        <v>English</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Joseph Biden</v>
-      </c>
-      <c r="B6">
-        <v>96</v>
+        <v>N/A</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Lutherbibel 1534</v>
+      </c>
+      <c r="C6" t="str">
+        <v>9781683071501</v>
+      </c>
+      <c r="D6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Martin Luther</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2018</v>
+      </c>
+      <c r="G6">
+        <v>1900</v>
+      </c>
+      <c r="H6" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I6" t="str">
+        <v>English</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Sheet 1</v>
+        <v>N/A</v>
       </c>
       <c r="B7" t="str">
-        <v>me</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>SheetJs Dev</v>
+        <v>Harry Potter e la pietra filosofale</v>
+      </c>
+      <c r="C7" t="str">
+        <v>9788869183157</v>
+      </c>
+      <c r="D7" t="str">
+        <v>series:Harry_Potter</v>
+      </c>
+      <c r="E7" t="str">
+        <v>J. K. Rowling</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Oct 22, 2015</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="I7" t="str">
+        <v>English</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/backup.xlsx
+++ b/data/backup.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,8 +408,8 @@
     <col min="4" max="4" width="50.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,54 +444,54 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>24155</v>
+      </c>
+      <c r="B2" t="str">
+        <v>The Wishing Chair Again</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1865154253</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Children's stories</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Enid Blyton</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2001-09</v>
+      </c>
+      <c r="G2">
+        <v>117</v>
+      </c>
+      <c r="H2" t="str">
         <v>N/A</v>
       </c>
-      <c r="B2" t="str">
-        <v>Bound by One Scandalous Night</v>
-      </c>
-      <c r="C2" t="str">
-        <v>9780373298785</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Fiction, Romance, Historical</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Diane Gaston</v>
-      </c>
-      <c r="F2" t="str">
-        <v>2016</v>
-      </c>
-      <c r="G2">
-        <v>283</v>
-      </c>
-      <c r="H2" t="str">
-        <v>https://covers.openlibrary.org/b/id/13058255-L.jpg</v>
-      </c>
       <c r="I2" t="str">
-        <v>English</v>
+        <v>EN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>N/A</v>
+        <v>8956​</v>
       </c>
       <c r="B3" t="str">
-        <v>Good news Bible</v>
+        <v>Supreme Book of Bible Stories</v>
       </c>
       <c r="C3" t="str">
-        <v>9780564003112</v>
+        <v>9780603077586</v>
       </c>
       <c r="D3" t="str">
-        <v>Manuscripts, Latin (Medieval and modern)</v>
+        <v>Bible stories, o.t.</v>
       </c>
       <c r="E3" t="str">
-        <v>Bible</v>
+        <v>Virginia Salmon</v>
       </c>
       <c r="F3" t="str">
-        <v>1976</v>
-      </c>
-      <c r="G3">
-        <v>931</v>
+        <v>1977</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
       </c>
       <c r="H3" t="str">
         <v>N/A</v>
@@ -502,123 +502,36 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>N/A</v>
+        <v>SR-21-0346</v>
       </c>
       <c r="B4" t="str">
-        <v>The Holy Bible</v>
+        <v>101 Stories for Boys</v>
       </c>
       <c r="C4" t="str">
-        <v>9780564090136</v>
+        <v>9789380070759</v>
       </c>
       <c r="D4" t="str">
-        <v>Christianity</v>
+        <v>Fiction</v>
       </c>
       <c r="E4" t="str">
-        <v>Bible Society</v>
+        <v>Om Books Editorial Team</v>
       </c>
       <c r="F4" t="str">
-        <v>1991-01-01</v>
+        <v>2012-12</v>
       </c>
       <c r="G4">
-        <v>1311</v>
+        <v>128</v>
       </c>
       <c r="H4" t="str">
         <v>N/A</v>
       </c>
       <c r="I4" t="str">
         <v>EN</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B5" t="str">
-        <v>The Holy Bible</v>
-      </c>
-      <c r="C5" t="str">
-        <v>9780670887972</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Bible</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Barry Moser</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1999</v>
-      </c>
-      <c r="G5">
-        <v>994</v>
-      </c>
-      <c r="H5" t="str">
-        <v>https://covers.openlibrary.org/b/id/402477-L.jpg</v>
-      </c>
-      <c r="I5" t="str">
-        <v>English</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Lutherbibel 1534</v>
-      </c>
-      <c r="C6" t="str">
-        <v>9781683071501</v>
-      </c>
-      <c r="D6" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Martin Luther</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2018</v>
-      </c>
-      <c r="G6">
-        <v>1900</v>
-      </c>
-      <c r="H6" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I6" t="str">
-        <v>English</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Harry Potter e la pietra filosofale</v>
-      </c>
-      <c r="C7" t="str">
-        <v>9788869183157</v>
-      </c>
-      <c r="D7" t="str">
-        <v>series:Harry_Potter</v>
-      </c>
-      <c r="E7" t="str">
-        <v>J. K. Rowling</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Oct 22, 2015</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="I7" t="str">
-        <v>English</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>